--- a/INTLINE/data/566/PHSA/Consumer Price Index for All Income Households by Commodity Group_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Consumer Price Index for All Income Households by Commodity Group_historical.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="796">
   <si>
     <t>1957-01</t>
   </si>
@@ -7499,8 +7499,8 @@
       <c r="ADE2">
         <v>113.4</v>
       </c>
-      <c r="ADF2" t="s">
-        <v>795</v>
+      <c r="ADF2">
+        <v>113.9</v>
       </c>
       <c r="ADG2" t="s">
         <v>795</v>
@@ -8152,8 +8152,8 @@
       <c r="ADE3">
         <v>112.6</v>
       </c>
-      <c r="ADF3" t="s">
-        <v>795</v>
+      <c r="ADF3">
+        <v>113.1</v>
       </c>
       <c r="ADG3" t="s">
         <v>795</v>
@@ -10533,8 +10533,8 @@
       <c r="ADE4">
         <v>110.3</v>
       </c>
-      <c r="ADF4" t="s">
-        <v>795</v>
+      <c r="ADF4">
+        <v>110.9</v>
       </c>
       <c r="ADG4" t="s">
         <v>795</v>
